--- a/data/trans_camb/P15_3-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P15_3-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,61</t>
+          <t>7,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,56</t>
+          <t>16,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33,95</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>13,03</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,78</t>
+          <t>21,41</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,55</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>33,77</t>
+          <t>10,28</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>9,79</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>19,55</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>33,83</t>
+          <t>19,19</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 1,84</t>
+          <t>-9,44; 3,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 12,8</t>
+          <t>-0,22; 13,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,91; 25,22</t>
+          <t>9,42; 23,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,52; 40,2</t>
+          <t>-5,36; 4,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 2,91</t>
+          <t>6,79; 18,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,55; 15,4</t>
+          <t>14,84; 26,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,1; 24,54</t>
+          <t>-5,08; 3,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>27,59; 40,26</t>
+          <t>5,62; 14,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 1,6</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>6,7; 12,99</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>15,94; 23,61</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>29,02; 38,79</t>
+          <t>14,17; 23,5</t>
         </is>
       </c>
     </row>
@@ -792,62 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-28,51%</t>
+          <t>-37,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>252,05%</t>
+          <t>107,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>572,7%</t>
+          <t>254,08%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>994,23%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-13,92%</t>
+          <t>297,07%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>210,32%</t>
+          <t>488,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>381,22%</t>
+          <t>-17,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>658,52%</t>
+          <t>191,42%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-19,06%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>223,32%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>445,73%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>771,45%</t>
+          <t>357,33%</t>
         </is>
       </c>
     </row>
@@ -860,62 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-80,04; 111,15</t>
+          <t>-87,36; 157,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>71,48; 615,89</t>
+          <t>-7,5; 504,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>229,17; 1367,06</t>
+          <t>61,91; 763,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>451,27; 2179,44</t>
+          <t>-75,72; 268,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-63,21; 88,38</t>
+          <t>67,7; 1154,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>91,31; 414,04</t>
+          <t>146,68; 1541,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>193,47; 725,27</t>
+          <t>-65,69; 108,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>379,19; 1113,6</t>
+          <t>54,97; 486,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-57,54; 52,06</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>116,61; 415,91</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>266,8; 714,45</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>502,4; 1214,85</t>
+          <t>154,56; 757,81</t>
         </is>
       </c>
     </row>
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,4</t>
+          <t>9,14</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,44</t>
+          <t>17,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>37,36</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>9,39</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,35</t>
+          <t>21,08</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>23,89</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>42,54</t>
+          <t>9,27</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>11,37</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>21,58</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>39,7</t>
+          <t>19,32</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 1,14</t>
+          <t>-6,89; 1,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,92; 15,04</t>
+          <t>4,07; 13,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,54; 23,82</t>
+          <t>12,4; 22,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>32,3; 42,6</t>
+          <t>-6,85; 1,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 1,17</t>
+          <t>4,22; 13,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,08; 14,59</t>
+          <t>16,1; 25,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,12; 27,97</t>
+          <t>-5,55; 0,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>37,44; 47,3</t>
+          <t>6,18; 12,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,63</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>9,13; 13,81</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>18,91; 24,61</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>36,18; 43,21</t>
+          <t>15,9; 22,88</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-22,99%</t>
+          <t>-34,22%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>192,03%</t>
+          <t>115,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>327,45%</t>
+          <t>222,57%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>629,45%</t>
+          <t>-31,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-21,19%</t>
+          <t>118,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>194,73%</t>
+          <t>266,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>410,11%</t>
+          <t>-32,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>730,08%</t>
+          <t>116,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-22,1%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>193,4%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>366,91%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>675,06%</t>
+          <t>243,63%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-54,07; 26,16</t>
+          <t>-66,43; 22,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>111,25; 299,49</t>
+          <t>32,71; 235,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>206,24; 487,41</t>
+          <t>101,17; 380,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>430,29; 889,76</t>
+          <t>-63,86; 30,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,63; 26,35</t>
+          <t>37,95; 244,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>108,23; 304,4</t>
+          <t>147,0; 525,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>268,4; 585,33</t>
+          <t>-57,15; 2,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>515,53; 1056,11</t>
+          <t>62,83; 197,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-44,04; 11,79</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>136,83; 273,86</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>276,18; 484,81</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>525,65; 879,52</t>
+          <t>159,34; 361,61</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>15,27</t>
+          <t>15,71</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>22,17</t>
+          <t>21,6</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>31,56</t>
+          <t>-4,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>8,37</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>12,93</t>
+          <t>19,85</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>24,76</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>34,83</t>
+          <t>11,77</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>14,13</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>23,58</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>33,39</t>
+          <t>20,54</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 4,84</t>
+          <t>-7,53; 3,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,42; 20,82</t>
+          <t>9,31; 22,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,13; 27,9</t>
+          <t>15,16; 27,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23,49; 39,44</t>
+          <t>-10,43; 1,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 3,15</t>
+          <t>1,64; 14,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,64; 17,51</t>
+          <t>13,66; 25,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,45; 30,1</t>
+          <t>-7,5; 0,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>28,04; 41,77</t>
+          <t>7,21; 16,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 2,7</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>10,57; 17,66</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>20,0; 27,4</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>28,13; 38,75</t>
+          <t>15,61; 24,8</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>-18,32%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>178,08%</t>
+          <t>163,26%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>258,55%</t>
+          <t>224,44%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>368,03%</t>
+          <t>-27,11%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-9,11%</t>
+          <t>50,87%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>113,16%</t>
+          <t>120,64%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>216,69%</t>
+          <t>-24,81%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>304,84%</t>
+          <t>88,44%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-4,96%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>141,7%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>236,45%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>334,81%</t>
+          <t>154,41%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,26; 72,55</t>
+          <t>-56,95; 57,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>94,58; 314,17</t>
+          <t>67,12; 365,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>157,52; 416,96</t>
+          <t>104,82; 436,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>223,4; 585,18</t>
+          <t>-52,72; 11,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,41; 34,19</t>
+          <t>8,11; 114,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>55,32; 192,16</t>
+          <t>64,49; 203,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>136,76; 330,64</t>
+          <t>-47,4; 6,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>208,69; 465,11</t>
+          <t>41,71; 149,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-30,35; 31,81</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>91,4; 208,27</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>175,03; 329,34</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>249,0; 446,38</t>
+          <t>95,25; 227,56</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11,88</t>
+          <t>10,77</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20,29</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>34,72</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>11,67</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>23,27</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>37,35</t>
+          <t>11,19</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>11,86</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>21,81</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>36,03</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 1,35</t>
+          <t>-2,88; 3,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,39; 14,35</t>
+          <t>6,48; 15,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,49; 23,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>31,21; 38,75</t>
+          <t>-2,97; 1,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 1,07</t>
+          <t>7,73; 16,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,51; 14,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,49; 25,84</t>
+          <t>-2,48; 1,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>33,95; 40,89</t>
+          <t>7,95; 14,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 0,39</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>10,15; 13,56</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>19,92; 23,67</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>33,41; 38,37</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-12,85%</t>
+          <t>-9,74%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>189,88%</t>
+          <t>215,69%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>324,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>554,74%</t>
+          <t>-19,77%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-12,56%</t>
+          <t>237,5%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>164,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>322,98%</t>
+          <t>-14,61%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>518,54%</t>
+          <t>226,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-12,69%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>175,87%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>323,52%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>534,36%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,74 +1439,283 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-36,95; 23,95</t>
+          <t>-50,22; 77,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>129,22; 262,86</t>
+          <t>107,92; 363,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>241,36; 424,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>428,77; 726,06</t>
+          <t>-51,87; 42,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-34,21; 16,94</t>
+          <t>128,47; 383,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>119,97; 229,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>253,16; 416,48</t>
+          <t>-44,54; 27,41</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>420,83; 663,45</t>
+          <t>146,24; 324,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-29,29; 6,63</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>136,15; 220,89</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>268,26; 389,59</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>444,17; 630,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,9</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>11,97</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>20,6</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-1,02</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>11,97</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>23,39</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,96</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>11,97</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>22,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,76; 1,01</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>9,59; 14,69</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>17,63; 23,44</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-2,93; 0,72</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>9,76; 14,13</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>20,79; 26,16</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,27; 0,4</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>10,23; 13,77</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>20,15; 24,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-14,45%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>191,21%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>329,02%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-14,2%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>166,8%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>325,88%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-14,31%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>177,9%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>327,22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-39,59; 18,2</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>130,78; 273,57</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>244,26; 444,29</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-36,29; 11,9</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>118,05; 225,16</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>251,91; 416,41</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-30,89; 6,84</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>134,54; 224,05</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>268,73; 398,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
